--- a/2-missing-values/2-missing-values.xlsx
+++ b/2-missing-values/2-missing-values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\2-missing-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB85EDE-5A25-48C1-99D3-31AC89BE62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76C67C-852E-482D-958C-B012B59AFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,43 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -49,6 +86,11 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>penguins_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -644,8 +686,267 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="8">
+    <v t="s"/>
+    <v t="s">species</v>
+    <v t="s">island</v>
+    <v t="s">bill_length_mm</v>
+    <v t="s">bill_depth_mm</v>
+    <v t="s">flipper_length_mm</v>
+    <v t="s">body_mass_g</v>
+    <v t="s">sex</v>
+    <v>0</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v>39.1</v>
+    <v>18.7</v>
+    <v>181</v>
+    <v>3750</v>
+    <v t="s">Male</v>
+    <v>1</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v>39.5</v>
+    <v>17.399999999999999</v>
+    <v>186</v>
+    <v>3800</v>
+    <v t="s">Female</v>
+    <v>2</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v>40.299999999999997</v>
+    <v>18</v>
+    <v>195</v>
+    <v>3250</v>
+    <v t="s">Female</v>
+    <v>3</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="s"/>
+    <v>4</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v>36.700000000000003</v>
+    <v>19.3</v>
+    <v>193</v>
+    <v>3450</v>
+    <v t="s">Female</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>339</v>
+    <v t="s">Gentoo</v>
+    <v t="s">Biscoe</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="s"/>
+    <v>340</v>
+    <v t="s">Gentoo</v>
+    <v t="s">Biscoe</v>
+    <v>46.8</v>
+    <v>14.3</v>
+    <v>215</v>
+    <v>4850</v>
+    <v t="s">Female</v>
+    <v>341</v>
+    <v t="s">Gentoo</v>
+    <v t="s">Biscoe</v>
+    <v>50.4</v>
+    <v>15.7</v>
+    <v>222</v>
+    <v>5750</v>
+    <v t="s">Male</v>
+    <v>342</v>
+    <v t="s">Gentoo</v>
+    <v t="s">Biscoe</v>
+    <v>45.2</v>
+    <v>14.8</v>
+    <v>212</v>
+    <v>5200</v>
+    <v t="s">Female</v>
+    <v>343</v>
+    <v t="s">Gentoo</v>
+    <v t="s">Biscoe</v>
+    <v>49.9</v>
+    <v>16.100000000000001</v>
+    <v>213</v>
+    <v>5400</v>
+    <v t="s">Male</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <fb>0</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>1</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">    species     island  bill_length_mm  bill_depth_mm  flipper_length_mm  \
+0    Adelie  Torgersen            39.1           18.7              181.0   
+1    Adelie  Torgersen            39.5           17.4              186.0   
+2    Adelie  Torgersen  ...</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>344</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="Table1" displayName="Table1" ref="A1:G345" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
   <autoFilter ref="A1:G345" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB47DF9F-ED44-46A8-8E6E-EC5FD774AE15}" name="species"/>
@@ -977,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="3" max="3" width="14.58984375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
@@ -991,7 +1292,7 @@
     <col min="6" max="6" width="12.73828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1314,12 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I1" t="e" cm="1" vm="1">
+        <f t="array" ref="I1">_xlfn._xlws.PY(0,1,penguins[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +2066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +2135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +2158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +2181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +2204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +2227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2198,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +3032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +3124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +3170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +3239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +3285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3003,7 +3308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +3331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3095,7 +3400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +3446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3302,7 +3607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3348,7 +3653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3394,7 +3699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3417,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +3860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3716,7 +4021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3739,7 +4044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3762,7 +4067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3785,7 +4090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +4136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +4159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3877,7 +4182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3923,7 +4228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3946,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3969,7 +4274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4015,7 +4320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +4343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4061,7 +4366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4084,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4107,7 +4412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4153,7 +4458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4199,7 +4504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4222,7 +4527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4291,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4314,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4383,7 +4688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4429,7 +4734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4475,7 +4780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -4544,7 +4849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -4590,7 +4895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4613,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4636,7 +4941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -4659,7 +4964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +4987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -4705,7 +5010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -4728,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +5056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -4774,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +5102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -4820,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -4843,7 +5148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -4866,7 +5171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -4912,7 +5217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +5240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -4958,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +5286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -5004,7 +5309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -5027,7 +5332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -5050,7 +5355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5073,7 +5378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -5096,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -5142,7 +5447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -5165,7 +5470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -5188,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -5211,7 +5516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -5234,7 +5539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5257,7 +5562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -5280,7 +5585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -5326,7 +5631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -5349,7 +5654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5372,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -5395,7 +5700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5418,7 +5723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -5510,7 +5815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -5533,7 +5838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -5556,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -5579,7 +5884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -5602,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5625,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -5648,7 +5953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -5671,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -5694,7 +5999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +6022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -5740,7 +6045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5763,7 +6068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -5786,7 +6091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5809,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -5832,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -5855,7 +6160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -5878,7 +6183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +6206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +6229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -5947,7 +6252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -5970,7 +6275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5993,7 +6298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -6016,7 +6321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -6039,7 +6344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -6085,7 +6390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -6108,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -6131,7 +6436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -6154,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6177,7 +6482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -6200,7 +6505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -6223,7 +6528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -6246,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -6269,7 +6574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -6292,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -6315,7 +6620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -6338,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -6361,7 +6666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -6384,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -6407,7 +6712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -6430,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6453,7 +6758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -6476,7 +6781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -6522,7 +6827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -6568,7 +6873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6591,7 +6896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -6614,7 +6919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -6637,7 +6942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -6660,7 +6965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -6683,7 +6988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -6706,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6729,7 +7034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -6752,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -6775,7 +7080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -6798,7 +7103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -6821,7 +7126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -6844,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6867,7 +7172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -6890,7 +7195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -6913,7 +7218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +7241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -6959,7 +7264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -6982,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +7310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -7028,7 +7333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -7051,7 +7356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -7074,7 +7379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -7097,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -7120,7 +7425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -7143,7 +7448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -7166,7 +7471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -7189,7 +7494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -7212,7 +7517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -7235,7 +7540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -7258,7 +7563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -7281,7 +7586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -7304,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -7327,7 +7632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -7350,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -7373,7 +7678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -7396,7 +7701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -7419,7 +7724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -7442,7 +7747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -7465,7 +7770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -7488,7 +7793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -7511,7 +7816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -7534,7 +7839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -7557,7 +7862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -7580,7 +7885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -7603,7 +7908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -7626,7 +7931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -7649,7 +7954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -7672,7 +7977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -7695,7 +8000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -7718,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -7741,7 +8046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -7764,7 +8069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -7787,7 +8092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7810,7 +8115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -7833,7 +8138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -7856,7 +8161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -7879,7 +8184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -7902,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -7925,7 +8230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -7948,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -7971,7 +8276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -7994,7 +8299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -8017,7 +8322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -8040,7 +8345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -8063,7 +8368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -8086,7 +8391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -8109,7 +8414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -8132,7 +8437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -8155,7 +8460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -8178,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -8201,7 +8506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -8224,7 +8529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -8247,7 +8552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -8270,7 +8575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -8293,7 +8598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -8316,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -8339,7 +8644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -8362,7 +8667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -8385,7 +8690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -8408,7 +8713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -8431,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -8454,7 +8759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -8477,7 +8782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -8500,7 +8805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -8523,7 +8828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A329" t="s">
         <v>12</v>
       </c>
@@ -8546,7 +8851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -8569,7 +8874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -8592,7 +8897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -8615,7 +8920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -8638,7 +8943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -8661,7 +8966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -8684,7 +8989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -8707,7 +9012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -8730,7 +9035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -8753,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -8776,7 +9081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -8799,7 +9104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -8810,7 +9115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -8833,7 +9138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -8856,7 +9161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -8879,7 +9184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A345" t="s">
         <v>12</v>
       </c>
